--- a/lab2/integrals.xlsx
+++ b/lab2/integrals.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.938699495180046</v>
+        <v>4.094446370180023</v>
       </c>
       <c r="C2">
         <v>1.72777493734236</v>
